--- a/release/v2026.0.0/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
+++ b/release/v2026.0.0/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T12:07:54+00:00</t>
+    <t>2025-12-11T09:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release/v2026.0.0/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
+++ b/release/v2026.0.0/CodeSystem-mii-cs-fall-supplement-act-encounter-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:01:47+00:00</t>
+    <t>2025-12-11T09:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
